--- a/Excel/upgrade.xlsx
+++ b/Excel/upgrade.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{80B4C9C0-1EE0-4767-A5E3-C267CF3857C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Window7\First\matrimonyart\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3400BD16-A5B1-40E9-8F91-BC1E155E78F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="20760" windowHeight="11820" xr2:uid="{F13E6194-BAB1-45F9-9DED-3D4F4F8D8BDE}"/>
+    <workbookView xWindow="8490" yWindow="1365" windowWidth="15375" windowHeight="7890" activeTab="2" xr2:uid="{F13E6194-BAB1-45F9-9DED-3D4F4F8D8BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Nepal" sheetId="2" r:id="rId1"/>
@@ -13,23 +18,16 @@
     <sheet name="Srilankan" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Membership plan</t>
   </si>
@@ -73,25 +71,46 @@
     <t>USD 218</t>
   </si>
   <si>
-    <t>USD 20</t>
-  </si>
-  <si>
-    <t>USD 38</t>
-  </si>
-  <si>
-    <t>USD 26</t>
-  </si>
-  <si>
-    <t>USD 50</t>
-  </si>
-  <si>
-    <t>USD 36</t>
-  </si>
-  <si>
-    <t>USD 56</t>
-  </si>
-  <si>
-    <t>USD 60</t>
+    <t>NPR 1140</t>
+  </si>
+  <si>
+    <t>NPR 2166</t>
+  </si>
+  <si>
+    <t>NPR 1482</t>
+  </si>
+  <si>
+    <t>NPR 2850</t>
+  </si>
+  <si>
+    <t>NPR 2052</t>
+  </si>
+  <si>
+    <t>NPR 3192</t>
+  </si>
+  <si>
+    <t>NPR 3420</t>
+  </si>
+  <si>
+    <t>LKR 5500</t>
+  </si>
+  <si>
+    <t>LKR 14900</t>
+  </si>
+  <si>
+    <t>LKR 10000</t>
+  </si>
+  <si>
+    <t>LKR 17500</t>
+  </si>
+  <si>
+    <t>LKR 12800</t>
+  </si>
+  <si>
+    <t>LKR 22300</t>
+  </si>
+  <si>
+    <t>LKR 23000</t>
   </si>
 </sst>
 </file>
@@ -461,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF7D5A7-C671-4596-9AF6-3C905173F5DD}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D38D6F-B646-43AF-9123-B2BAAA30E62D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,10 +661,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,10 +672,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
